--- a/gp_aas_total.xlsx
+++ b/gp_aas_total.xlsx
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -687,40 +687,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -729,25 +729,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -793,31 +793,31 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -897,43 +897,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -967,28 +967,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1000,34 +1000,34 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1037,34 +1037,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1073,31 +1073,31 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1107,37 +1107,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1146,28 +1146,28 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1317,19 +1317,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1353,31 +1353,31 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1399,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1457,28 +1457,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1597,19 +1597,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1618,46 +1618,46 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1782,22 +1782,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1883,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1947,37 +1947,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1995,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
